--- a/shinyapp/data/Loudouncountyeducation.xlsx
+++ b/shinyapp/data/Loudouncountyeducation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89976354-4AE8-0F46-941B-FCC478BE6F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17B19BD2-FF3F-4DB1-87CB-5CBDAB80BAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -1776,7 +1776,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2179,13 +2178,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="30" style="1" customWidth="1"/>
     <col min="2" max="13" width="20" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2203,7 @@
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2233,7 +2232,7 @@
       </c>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2274,12 +2273,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -2361,7 +2360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -2402,7 +2401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>57</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>69</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>76</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>87</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>106</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>118</v>
       </c>
@@ -2730,7 +2729,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>131</v>
       </c>
@@ -2771,7 +2770,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>142</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>154</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>57</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>174</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>154</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
@@ -3017,7 +3016,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>203</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>154</v>
       </c>
@@ -3099,7 +3098,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>233</v>
       </c>
@@ -3181,7 +3180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>154</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
         <v>262</v>
       </c>
@@ -3304,7 +3303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>154</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -3386,12 +3385,12 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>293</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
         <v>154</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
         <v>57</v>
       </c>
@@ -3514,7 +3513,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
         <v>319</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4" t="s">
         <v>154</v>
       </c>
@@ -3596,7 +3595,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4" t="s">
         <v>57</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
         <v>345</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
         <v>154</v>
       </c>
@@ -3719,7 +3718,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4" t="s">
         <v>57</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
         <v>373</v>
       </c>
@@ -3801,7 +3800,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4" t="s">
         <v>154</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
         <v>57</v>
       </c>
@@ -3883,7 +3882,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
         <v>404</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
         <v>154</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4" t="s">
         <v>57</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
         <v>430</v>
       </c>
@@ -4047,7 +4046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4" t="s">
         <v>154</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4" t="s">
         <v>57</v>
       </c>
@@ -4129,7 +4128,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
         <v>452</v>
       </c>
@@ -4170,7 +4169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4" t="s">
         <v>154</v>
       </c>
@@ -4211,7 +4210,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -4252,7 +4251,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="s">
         <v>478</v>
       </c>
@@ -4293,7 +4292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4" t="s">
         <v>154</v>
       </c>
@@ -4334,7 +4333,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
         <v>506</v>
       </c>
@@ -4416,7 +4415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4" t="s">
         <v>154</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -4498,12 +4497,12 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3" t="s">
         <v>20</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
         <v>33</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
         <v>45</v>
       </c>
@@ -4626,7 +4625,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3" t="s">
         <v>57</v>
       </c>
@@ -4667,12 +4666,12 @@
         <v>539</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3" t="s">
         <v>543</v>
       </c>
@@ -4713,7 +4712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4" t="s">
         <v>20</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4" t="s">
         <v>33</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4" t="s">
         <v>45</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
         <v>131</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4" t="s">
         <v>142</v>
       </c>
